--- a/data/tips.xlsx
+++ b/data/tips.xlsx
@@ -1,50 +1,38 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dominique\Documents\BIOptilab\CEGEP\CEGEP_BDB\IA\Non-Supervisé_Aut21\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/116873ee027e380c/Studies/BdeB/IA/420-A58-BB/Examen Final/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="9" documentId="11_BF3B85B80C32A6823B9C025419263D0665A76FBD" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1FA3E8B3-0875-4119-B2F3-E9C8A418C303}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18720" windowHeight="9540"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="tips" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="252">
   <si>
-    <t>IDEN</t>
-  </si>
-  <si>
-    <t>TOTBILL</t>
-  </si>
-  <si>
-    <t>TIP</t>
-  </si>
-  <si>
-    <t>SEX</t>
-  </si>
-  <si>
-    <t>SMOKER</t>
-  </si>
-  <si>
-    <t>DAY</t>
-  </si>
-  <si>
-    <t>TIME</t>
-  </si>
-  <si>
-    <t>SIZE</t>
-  </si>
-  <si>
     <t>R001</t>
   </si>
   <si>
@@ -775,12 +763,36 @@
   </si>
   <si>
     <t>R244</t>
+  </si>
+  <si>
+    <t>iden</t>
+  </si>
+  <si>
+    <t>totbill</t>
+  </si>
+  <si>
+    <t>tip</t>
+  </si>
+  <si>
+    <t>sex</t>
+  </si>
+  <si>
+    <t>smoker</t>
+  </si>
+  <si>
+    <t>day</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>size</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1263,48 +1275,48 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20 % - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20 % - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20 % - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20 % - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20 % - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20 % - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40 % - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40 % - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40 % - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40 % - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40 % - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40 % - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60 % - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60 % - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60 % - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60 % - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60 % - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60 % - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
     <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
     <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
     <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
     <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
     <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
     <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Avertissement" xfId="14" builtinId="11" customBuiltin="1"/>
-    <cellStyle name="Calcul" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Cellule liée" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Commentaire" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Entrée" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Insatisfaisant" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Neutre" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Satisfaisant" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Sortie" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Texte explicatif" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Titre" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Titre 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Titre 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Titre 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Titre 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Vérification" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1581,47 +1593,47 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H245"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B173" sqref="B173"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="3" width="11.5546875" style="1"/>
+    <col min="2" max="3" width="11.54296875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>244</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>245</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>246</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>247</v>
       </c>
       <c r="E1" t="s">
-        <v>4</v>
+        <v>248</v>
       </c>
       <c r="F1" t="s">
-        <v>5</v>
+        <v>249</v>
       </c>
       <c r="G1" t="s">
-        <v>6</v>
+        <v>250</v>
       </c>
       <c r="H1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>16.989999999999998</v>
@@ -1645,9 +1657,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>10.34</v>
@@ -1671,9 +1683,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>21.01</v>
@@ -1697,9 +1709,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>23.68</v>
@@ -1723,9 +1735,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>24.59</v>
@@ -1749,9 +1761,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>25.29</v>
@@ -1775,9 +1787,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>8.77</v>
@@ -1801,9 +1813,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>26.88</v>
@@ -1827,9 +1839,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>15.04</v>
@@ -1853,9 +1865,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>14.78</v>
@@ -1879,9 +1891,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>10.27</v>
@@ -1905,9 +1917,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>35.26</v>
@@ -1931,9 +1943,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>15.42</v>
@@ -1957,9 +1969,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>18.43</v>
@@ -1983,9 +1995,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>14.83</v>
@@ -2009,9 +2021,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>21.58</v>
@@ -2035,9 +2047,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>10.33</v>
@@ -2061,9 +2073,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>16.29</v>
@@ -2087,9 +2099,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>16.97</v>
@@ -2113,9 +2125,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>20.65</v>
@@ -2139,9 +2151,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1">
         <v>17.920000000000002</v>
@@ -2165,9 +2177,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1">
         <v>20.29</v>
@@ -2191,9 +2203,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1">
         <v>15.77</v>
@@ -2217,9 +2229,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1">
         <v>39.42</v>
@@ -2243,9 +2255,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1">
         <v>19.82</v>
@@ -2269,9 +2281,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1">
         <v>17.809999999999999</v>
@@ -2295,9 +2307,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1">
         <v>13.37</v>
@@ -2321,9 +2333,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1">
         <v>12.69</v>
@@ -2347,9 +2359,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1">
         <v>21.7</v>
@@ -2373,9 +2385,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1">
         <v>19.649999999999999</v>
@@ -2399,9 +2411,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="B32" s="1">
         <v>9.5500000000000007</v>
@@ -2425,9 +2437,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="B33" s="1">
         <v>18.350000000000001</v>
@@ -2451,9 +2463,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="B34" s="1">
         <v>15.06</v>
@@ -2477,9 +2489,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="B35" s="1">
         <v>20.69</v>
@@ -2503,9 +2515,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="B36" s="1">
         <v>17.78</v>
@@ -2529,9 +2541,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="B37" s="1">
         <v>24.06</v>
@@ -2555,9 +2567,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="B38" s="1">
         <v>16.309999999999999</v>
@@ -2581,9 +2593,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="B39" s="1">
         <v>16.93</v>
@@ -2607,9 +2619,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="B40" s="1">
         <v>18.690000000000001</v>
@@ -2633,9 +2645,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="B41" s="1">
         <v>31.27</v>
@@ -2659,9 +2671,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="B42" s="1">
         <v>16.04</v>
@@ -2685,9 +2697,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="B43" s="1">
         <v>17.46</v>
@@ -2711,9 +2723,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="B44" s="1">
         <v>13.94</v>
@@ -2737,9 +2749,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="B45" s="1">
         <v>9.68</v>
@@ -2763,9 +2775,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="B46" s="1">
         <v>30.4</v>
@@ -2789,9 +2801,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="B47" s="1">
         <v>18.29</v>
@@ -2815,9 +2827,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="B48" s="1">
         <v>22.23</v>
@@ -2841,9 +2853,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="B49" s="1">
         <v>32.4</v>
@@ -2867,9 +2879,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="B50" s="1">
         <v>28.55</v>
@@ -2893,9 +2905,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="B51" s="1">
         <v>18.04</v>
@@ -2919,9 +2931,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="B52" s="1">
         <v>12.54</v>
@@ -2945,9 +2957,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="B53" s="1">
         <v>10.29</v>
@@ -2971,9 +2983,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="B54" s="1">
         <v>34.81</v>
@@ -2997,9 +3009,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="B55" s="1">
         <v>9.94</v>
@@ -3023,9 +3035,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="B56" s="1">
         <v>25.56</v>
@@ -3049,9 +3061,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="B57" s="1">
         <v>19.489999999999998</v>
@@ -3075,9 +3087,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="B58" s="1">
         <v>38.01</v>
@@ -3101,9 +3113,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="B59" s="1">
         <v>26.41</v>
@@ -3127,9 +3139,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="B60" s="1">
         <v>11.24</v>
@@ -3153,9 +3165,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="B61" s="1">
         <v>48.27</v>
@@ -3179,9 +3191,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="B62" s="1">
         <v>20.29</v>
@@ -3205,9 +3217,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="B63" s="1">
         <v>13.81</v>
@@ -3231,9 +3243,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="B64" s="1">
         <v>11.02</v>
@@ -3257,9 +3269,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="B65" s="1">
         <v>18.29</v>
@@ -3283,9 +3295,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="B66" s="1">
         <v>17.59</v>
@@ -3309,9 +3321,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="B67" s="1">
         <v>20.079999999999998</v>
@@ -3335,9 +3347,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="B68" s="1">
         <v>16.45</v>
@@ -3361,9 +3373,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="B69" s="1">
         <v>3.07</v>
@@ -3387,9 +3399,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="B70" s="1">
         <v>20.23</v>
@@ -3413,9 +3425,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="B71" s="1">
         <v>15.01</v>
@@ -3439,9 +3451,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B72" s="1">
         <v>12.02</v>
@@ -3465,9 +3477,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B73" s="1">
         <v>17.07</v>
@@ -3491,9 +3503,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="B74" s="1">
         <v>26.86</v>
@@ -3517,9 +3529,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="B75" s="1">
         <v>25.28</v>
@@ -3543,9 +3555,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="B76" s="1">
         <v>14.73</v>
@@ -3569,9 +3581,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="B77" s="1">
         <v>10.51</v>
@@ -3595,9 +3607,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="B78" s="1">
         <v>17.920000000000002</v>
@@ -3621,9 +3633,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="B79" s="1">
         <v>27.2</v>
@@ -3647,9 +3659,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="B80" s="1">
         <v>22.76</v>
@@ -3673,9 +3685,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="B81" s="1">
         <v>17.29</v>
@@ -3699,9 +3711,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="B82" s="1">
         <v>19.440000000000001</v>
@@ -3725,9 +3737,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="B83" s="1">
         <v>16.66</v>
@@ -3751,9 +3763,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="B84" s="1">
         <v>10.07</v>
@@ -3777,9 +3789,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="B85" s="1">
         <v>32.68</v>
@@ -3803,9 +3815,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="B86" s="1">
         <v>15.98</v>
@@ -3829,9 +3841,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="B87" s="1">
         <v>34.83</v>
@@ -3855,9 +3867,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="B88" s="1">
         <v>13.03</v>
@@ -3881,9 +3893,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="B89" s="1">
         <v>18.28</v>
@@ -3907,9 +3919,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="B90" s="1">
         <v>24.71</v>
@@ -3933,9 +3945,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="B91" s="1">
         <v>21.16</v>
@@ -3959,9 +3971,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="B92" s="1">
         <v>28.97</v>
@@ -3985,9 +3997,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="B93" s="1">
         <v>22.49</v>
@@ -4011,9 +4023,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="B94" s="1">
         <v>5.75</v>
@@ -4037,9 +4049,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="B95" s="1">
         <v>16.32</v>
@@ -4063,9 +4075,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="B96" s="1">
         <v>22.75</v>
@@ -4089,9 +4101,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="B97" s="1">
         <v>40.17</v>
@@ -4115,9 +4127,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="B98" s="1">
         <v>27.28</v>
@@ -4141,9 +4153,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="B99" s="1">
         <v>12.03</v>
@@ -4167,9 +4179,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="B100" s="1">
         <v>21.01</v>
@@ -4193,9 +4205,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="B101" s="1">
         <v>12.46</v>
@@ -4219,9 +4231,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="B102" s="1">
         <v>11.35</v>
@@ -4245,9 +4257,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="B103" s="1">
         <v>15.38</v>
@@ -4271,9 +4283,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="B104" s="1">
         <v>44.3</v>
@@ -4297,9 +4309,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="B105" s="1">
         <v>22.42</v>
@@ -4323,9 +4335,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="B106" s="1">
         <v>20.92</v>
@@ -4349,9 +4361,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="B107" s="1">
         <v>15.36</v>
@@ -4375,9 +4387,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="B108" s="1">
         <v>20.49</v>
@@ -4401,9 +4413,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="B109" s="1">
         <v>25.21</v>
@@ -4427,9 +4439,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="B110" s="1">
         <v>18.239999999999998</v>
@@ -4453,9 +4465,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="B111" s="1">
         <v>14.31</v>
@@ -4479,9 +4491,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="B112" s="1">
         <v>14</v>
@@ -4505,9 +4517,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="B113" s="1">
         <v>7.25</v>
@@ -4531,9 +4543,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="B114" s="1">
         <v>38.07</v>
@@ -4557,9 +4569,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="B115" s="1">
         <v>23.95</v>
@@ -4583,9 +4595,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="B116" s="1">
         <v>25.71</v>
@@ -4609,9 +4621,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="B117" s="1">
         <v>17.309999999999999</v>
@@ -4635,9 +4647,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="B118" s="1">
         <v>29.93</v>
@@ -4661,9 +4673,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="B119" s="1">
         <v>10.65</v>
@@ -4687,9 +4699,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="B120" s="1">
         <v>12.43</v>
@@ -4713,9 +4725,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="B121" s="1">
         <v>24.08</v>
@@ -4739,9 +4751,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="B122" s="1">
         <v>11.69</v>
@@ -4765,9 +4777,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="B123" s="1">
         <v>13.42</v>
@@ -4791,9 +4803,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="B124" s="1">
         <v>14.26</v>
@@ -4817,9 +4829,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="B125" s="1">
         <v>15.95</v>
@@ -4843,9 +4855,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="B126" s="1">
         <v>12.48</v>
@@ -4869,9 +4881,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="B127" s="1">
         <v>29.8</v>
@@ -4895,9 +4907,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="B128" s="1">
         <v>8.52</v>
@@ -4921,9 +4933,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="B129" s="1">
         <v>14.52</v>
@@ -4947,9 +4959,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="B130" s="1">
         <v>11.38</v>
@@ -4973,9 +4985,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="B131" s="1">
         <v>22.82</v>
@@ -4999,9 +5011,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="B132" s="1">
         <v>19.079999999999998</v>
@@ -5025,9 +5037,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="B133" s="1">
         <v>20.27</v>
@@ -5051,9 +5063,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="B134" s="1">
         <v>11.17</v>
@@ -5077,9 +5089,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="B135" s="1">
         <v>12.26</v>
@@ -5103,9 +5115,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="B136" s="1">
         <v>18.260000000000002</v>
@@ -5129,9 +5141,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="B137" s="1">
         <v>8.51</v>
@@ -5155,9 +5167,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="B138" s="1">
         <v>10.33</v>
@@ -5181,9 +5193,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="B139" s="1">
         <v>14.15</v>
@@ -5207,9 +5219,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="B140" s="1">
         <v>16</v>
@@ -5233,9 +5245,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="B141" s="1">
         <v>13.16</v>
@@ -5259,9 +5271,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="B142" s="1">
         <v>17.47</v>
@@ -5285,9 +5297,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="B143" s="1">
         <v>34.299999999999997</v>
@@ -5311,9 +5323,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="B144" s="1">
         <v>41.19</v>
@@ -5337,9 +5349,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="B145" s="1">
         <v>27.05</v>
@@ -5363,9 +5375,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="B146" s="1">
         <v>16.43</v>
@@ -5389,9 +5401,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="B147" s="1">
         <v>8.35</v>
@@ -5415,9 +5427,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="B148" s="1">
         <v>18.64</v>
@@ -5441,9 +5453,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="B149" s="1">
         <v>11.87</v>
@@ -5467,9 +5479,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="B150" s="1">
         <v>9.7799999999999994</v>
@@ -5493,9 +5505,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="B151" s="1">
         <v>7.51</v>
@@ -5519,9 +5531,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="B152" s="1">
         <v>14.07</v>
@@ -5545,9 +5557,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="B153" s="1">
         <v>13.13</v>
@@ -5571,9 +5583,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="B154" s="1">
         <v>17.260000000000002</v>
@@ -5597,9 +5609,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="B155" s="1">
         <v>24.55</v>
@@ -5623,9 +5635,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="B156" s="1">
         <v>19.77</v>
@@ -5649,9 +5661,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="B157" s="1">
         <v>29.85</v>
@@ -5675,9 +5687,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="B158" s="1">
         <v>48.17</v>
@@ -5701,9 +5713,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="B159" s="1">
         <v>25</v>
@@ -5727,9 +5739,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="B160" s="1">
         <v>13.39</v>
@@ -5753,9 +5765,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="B161" s="1">
         <v>16.489999999999998</v>
@@ -5779,9 +5791,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="B162" s="1">
         <v>21.5</v>
@@ -5805,9 +5817,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="B163" s="1">
         <v>12.66</v>
@@ -5831,9 +5843,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="B164" s="1">
         <v>16.21</v>
@@ -5857,9 +5869,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="B165" s="1">
         <v>13.81</v>
@@ -5883,9 +5895,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="B166" s="1">
         <v>17.510000000000002</v>
@@ -5909,9 +5921,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="B167" s="1">
         <v>24.52</v>
@@ -5935,9 +5947,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="B168" s="1">
         <v>20.76</v>
@@ -5961,9 +5973,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="B169" s="1">
         <v>31.71</v>
@@ -5987,9 +5999,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="B170" s="1">
         <v>10.59</v>
@@ -6013,9 +6025,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="B171" s="1">
         <v>10.63</v>
@@ -6039,9 +6051,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="B172" s="1">
         <v>50.81</v>
@@ -6065,9 +6077,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="B173" s="1">
         <v>15.81</v>
@@ -6091,9 +6103,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="B174" s="1">
         <v>7.25</v>
@@ -6117,9 +6129,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="B175" s="1">
         <v>31.85</v>
@@ -6143,9 +6155,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="B176" s="1">
         <v>16.82</v>
@@ -6169,9 +6181,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="B177" s="1">
         <v>32.9</v>
@@ -6195,9 +6207,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="B178" s="1">
         <v>17.89</v>
@@ -6221,9 +6233,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="B179" s="1">
         <v>14.48</v>
@@ -6247,9 +6259,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="B180" s="1">
         <v>9.6</v>
@@ -6273,9 +6285,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="B181" s="1">
         <v>34.630000000000003</v>
@@ -6299,9 +6311,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="B182" s="1">
         <v>34.65</v>
@@ -6325,9 +6337,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="B183" s="1">
         <v>23.33</v>
@@ -6351,9 +6363,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="B184" s="1">
         <v>45.35</v>
@@ -6377,9 +6389,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="B185" s="1">
         <v>23.17</v>
@@ -6403,9 +6415,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="B186" s="1">
         <v>40.549999999999997</v>
@@ -6429,9 +6441,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="B187" s="1">
         <v>20.69</v>
@@ -6455,9 +6467,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="B188" s="1">
         <v>20.9</v>
@@ -6481,9 +6493,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="B189" s="1">
         <v>30.46</v>
@@ -6507,9 +6519,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="B190" s="1">
         <v>18.149999999999999</v>
@@ -6533,9 +6545,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="B191" s="1">
         <v>23.1</v>
@@ -6559,9 +6571,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="B192" s="1">
         <v>15.69</v>
@@ -6585,9 +6597,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="B193" s="1">
         <v>19.809999999999999</v>
@@ -6611,9 +6623,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="B194" s="1">
         <v>28.44</v>
@@ -6637,9 +6649,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="B195" s="1">
         <v>15.48</v>
@@ -6663,9 +6675,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="B196" s="1">
         <v>16.579999999999998</v>
@@ -6689,9 +6701,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="B197" s="1">
         <v>7.56</v>
@@ -6715,9 +6727,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="B198" s="1">
         <v>10.34</v>
@@ -6741,9 +6753,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="B199" s="1">
         <v>43.11</v>
@@ -6767,9 +6779,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="B200" s="1">
         <v>13</v>
@@ -6793,9 +6805,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="B201" s="1">
         <v>13.51</v>
@@ -6819,9 +6831,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A202" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="B202" s="1">
         <v>18.71</v>
@@ -6845,9 +6857,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A203" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="B203" s="1">
         <v>12.74</v>
@@ -6871,9 +6883,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A204" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="B204" s="1">
         <v>13</v>
@@ -6897,9 +6909,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A205" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="B205" s="1">
         <v>16.399999999999999</v>
@@ -6923,9 +6935,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="206" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A206" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="B206" s="1">
         <v>20.53</v>
@@ -6949,9 +6961,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="207" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A207" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="B207" s="1">
         <v>16.47</v>
@@ -6975,9 +6987,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="208" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A208" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="B208" s="1">
         <v>26.59</v>
@@ -7001,9 +7013,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="209" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A209" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="B209" s="1">
         <v>38.729999999999997</v>
@@ -7027,9 +7039,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="210" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A210" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="B210" s="1">
         <v>24.27</v>
@@ -7053,9 +7065,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="211" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A211" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="B211" s="1">
         <v>12.76</v>
@@ -7079,9 +7091,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="212" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A212" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="B212" s="1">
         <v>30.06</v>
@@ -7105,9 +7117,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="213" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A213" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="B213" s="1">
         <v>25.89</v>
@@ -7131,9 +7143,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="214" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A214" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="B214" s="1">
         <v>48.33</v>
@@ -7157,9 +7169,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="215" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A215" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="B215" s="1">
         <v>13.27</v>
@@ -7183,9 +7195,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="216" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A216" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="B216" s="1">
         <v>28.17</v>
@@ -7209,9 +7221,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="217" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A217" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="B217" s="1">
         <v>12.9</v>
@@ -7235,9 +7247,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="218" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A218" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="B218" s="1">
         <v>28.15</v>
@@ -7261,9 +7273,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="219" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A219" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="B219" s="1">
         <v>11.59</v>
@@ -7287,9 +7299,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="220" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A220" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="B220" s="1">
         <v>7.74</v>
@@ -7313,9 +7325,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="221" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A221" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="B221" s="1">
         <v>30.14</v>
@@ -7339,9 +7351,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="222" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A222" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="B222" s="1">
         <v>12.16</v>
@@ -7365,9 +7377,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="223" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A223" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="B223" s="1">
         <v>13.42</v>
@@ -7391,9 +7403,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="224" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A224" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="B224" s="1">
         <v>8.58</v>
@@ -7417,9 +7429,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="225" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A225" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="B225" s="1">
         <v>15.98</v>
@@ -7443,9 +7455,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="226" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A226" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="B226" s="1">
         <v>13.42</v>
@@ -7469,9 +7481,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="227" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A227" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="B227" s="1">
         <v>16.27</v>
@@ -7495,9 +7507,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="228" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A228" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="B228" s="1">
         <v>10.09</v>
@@ -7521,9 +7533,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="229" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A229" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="B229" s="1">
         <v>20.45</v>
@@ -7547,9 +7559,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="230" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A230" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="B230" s="1">
         <v>13.28</v>
@@ -7573,9 +7585,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="231" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A231" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="B231" s="1">
         <v>22.12</v>
@@ -7599,9 +7611,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="232" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A232" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="B232" s="1">
         <v>24.01</v>
@@ -7625,9 +7637,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="233" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A233" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="B233" s="1">
         <v>15.69</v>
@@ -7651,9 +7663,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="234" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A234" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="B234" s="1">
         <v>11.61</v>
@@ -7677,9 +7689,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="235" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A235" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="B235" s="1">
         <v>10.77</v>
@@ -7703,9 +7715,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="236" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A236" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="B236" s="1">
         <v>15.53</v>
@@ -7729,9 +7741,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="237" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A237" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="B237" s="1">
         <v>10.07</v>
@@ -7755,9 +7767,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="238" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A238" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="B238" s="1">
         <v>12.6</v>
@@ -7781,9 +7793,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="239" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A239" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="B239" s="1">
         <v>32.83</v>
@@ -7807,9 +7819,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="240" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A240" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="B240" s="1">
         <v>35.83</v>
@@ -7833,9 +7845,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="241" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A241" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="B241" s="1">
         <v>29.03</v>
@@ -7859,9 +7871,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="242" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A242" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="B242" s="1">
         <v>27.18</v>
@@ -7885,9 +7897,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="243" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A243" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="B243" s="1">
         <v>22.67</v>
@@ -7911,9 +7923,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="244" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A244" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="B244" s="1">
         <v>17.82</v>
@@ -7937,9 +7949,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="245" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A245" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="B245" s="1">
         <v>18.78</v>
@@ -8120,6 +8132,12 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -8128,20 +8146,37 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3124DA20-594F-4057-B307-E25A52F807F0}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3124DA20-594F-4057-B307-E25A52F807F0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="de1d1360-99cd-42fc-bc8b-4573954f187c"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{109F791B-0026-450F-8112-7B39AA899930}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CF4E659A-3225-4919-87AA-172F9F4AD334}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CF4E659A-3225-4919-87AA-172F9F4AD334}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{109F791B-0026-450F-8112-7B39AA899930}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>